--- a/dateroll/tests/test_cases.xlsx
+++ b/dateroll/tests/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amalizzio\github\dateroll\dateroll\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191457A0-CBE0-4E2B-AC23-EDE7C59633D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF1614-A49D-4CED-82B4-026C979CE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="120" windowWidth="29040" windowHeight="15720" xr2:uid="{41C17D60-4722-4875-B647-88904F0DF08C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41C17D60-4722-4875-B647-88904F0DF08C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
   <si>
     <t>sign</t>
   </si>
@@ -56,9 +56,6 @@
     <t>bd</t>
   </si>
   <si>
-    <t>/M</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
@@ -74,15 +71,9 @@
     <t>|WEuNY</t>
   </si>
   <si>
-    <t>step 0</t>
-  </si>
-  <si>
     <t>step 1</t>
   </si>
   <si>
-    <t xml:space="preserve">step 3 </t>
-  </si>
-  <si>
     <t>step 4</t>
   </si>
   <si>
@@ -92,13 +83,52 @@
     <t>step 2</t>
   </si>
   <si>
-    <t>blue are bouncers with /mod</t>
-  </si>
-  <si>
     <t>DurationString</t>
   </si>
   <si>
     <t>ParserString</t>
+  </si>
+  <si>
+    <t>/MOD</t>
+  </si>
+  <si>
+    <t>blue are bouncers with /MODod</t>
+  </si>
+  <si>
+    <t>step 3</t>
+  </si>
+  <si>
+    <t>step 5</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>others?</t>
+  </si>
+  <si>
+    <t>5y4q3m2w1d</t>
+  </si>
+  <si>
+    <t>5y4q3m2w1d0bd</t>
+  </si>
+  <si>
+    <t>combos</t>
+  </si>
+  <si>
+    <t>^ another sheet</t>
   </si>
 </sst>
 </file>
@@ -172,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +252,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -539,32 +572,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9266ADB-7E64-45E0-975D-93E86FEC3C09}">
-  <dimension ref="B1:P51"/>
+  <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="10" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="17.7109375" style="13" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" style="7" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -582,29 +615,29 @@
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -612,7 +645,7 @@
         <v>45284</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
@@ -621,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="14" t="str">
         <f>C2&amp;D2&amp;E2&amp;F2&amp;G2</f>
@@ -654,7 +687,7 @@
         <v>45291</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="10">
         <v>0</v>
@@ -663,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="14" t="str">
         <f>C3&amp;D3&amp;E3&amp;F3&amp;G3</f>
@@ -696,7 +729,7 @@
         <v>45362</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -705,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="14" t="str">
         <f>C4&amp;D4&amp;E4&amp;F4&amp;G4</f>
@@ -732,7 +765,7 @@
         <v>45412</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10">
         <v>0</v>
@@ -741,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="14" t="str">
         <f>C5&amp;D5&amp;E5&amp;F5&amp;G5</f>
@@ -768,7 +801,7 @@
         <v>45284</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -777,14 +810,14 @@
         <v>5</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H6" s="14" t="str">
         <f>C6&amp;D6&amp;E6&amp;F6&amp;G6</f>
-        <v>+0bd|WEuNY/M</v>
+        <v>+0bd|WEuNY/MOD</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="0"/>
@@ -801,7 +834,7 @@
       <c r="L6" s="1"/>
       <c r="O6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/24/23+0bd|WEuNY/M</v>
+        <v>12/24/23+0bd|WEuNY/MOD</v>
       </c>
       <c r="P6" s="8">
         <f>K6</f>
@@ -813,7 +846,7 @@
         <v>45291</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -822,14 +855,14 @@
         <v>5</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H7" s="14" t="str">
         <f>C7&amp;D7&amp;E7&amp;F7&amp;G7</f>
-        <v>+0bd|WEuNY/M</v>
+        <v>+0bd|WEuNY/MOD</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="0"/>
@@ -854,7 +887,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/31/23+0bd|WEuNY/M</v>
+        <v>12/31/23+0bd|WEuNY/MOD</v>
       </c>
       <c r="P7" s="8">
         <f>M7</f>
@@ -866,7 +899,7 @@
         <v>45362</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -875,14 +908,14 @@
         <v>5</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H8" s="14" t="str">
         <f>C8&amp;D8&amp;E8&amp;F8&amp;G8</f>
-        <v>+0bd|WEuNY/M</v>
+        <v>+0bd|WEuNY/MOD</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
@@ -893,7 +926,7 @@
       <c r="L8" s="1"/>
       <c r="O8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>03/11/24+0bd|WEuNY/M</v>
+        <v>03/11/24+0bd|WEuNY/MOD</v>
       </c>
       <c r="P8" s="8">
         <f>I8</f>
@@ -905,7 +938,7 @@
         <v>45412</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -914,14 +947,14 @@
         <v>5</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H9" s="14" t="str">
         <f>C9&amp;D9&amp;E9&amp;F9&amp;G9</f>
-        <v>+0bd|WEuNY/M</v>
+        <v>+0bd|WEuNY/MOD</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
@@ -932,7 +965,7 @@
       <c r="L9" s="1"/>
       <c r="O9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>04/30/24+0bd|WEuNY/M</v>
+        <v>04/30/24+0bd|WEuNY/MOD</v>
       </c>
       <c r="P9" s="8">
         <f>I9</f>
@@ -944,7 +977,7 @@
         <v>45284</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -953,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="14" t="str">
         <f>C10&amp;D10&amp;E10&amp;F10&amp;G10</f>
@@ -986,7 +1019,7 @@
         <v>45291</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -995,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="14" t="str">
         <f>C11&amp;D11&amp;E11&amp;F11&amp;G11</f>
@@ -1028,7 +1061,7 @@
         <v>45362</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -1037,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="14" t="str">
         <f>C12&amp;D12&amp;E12&amp;F12&amp;G12</f>
@@ -1067,7 +1100,7 @@
         <v>45412</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -1076,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="14" t="str">
         <f>C13&amp;D13&amp;E13&amp;F13&amp;G13</f>
@@ -1106,7 +1139,7 @@
         <v>45284</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -1115,14 +1148,14 @@
         <v>5</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H14" s="14" t="str">
         <f>C14&amp;D14&amp;E14&amp;F14&amp;G14</f>
-        <v>+1bd|WEuNY/M</v>
+        <v>+1bd|WEuNY/MOD</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="0"/>
@@ -1139,7 +1172,7 @@
       <c r="L14" s="1"/>
       <c r="O14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/24/23+1bd|WEuNY/M</v>
+        <v>12/24/23+1bd|WEuNY/MOD</v>
       </c>
       <c r="P14" s="8">
         <f>K14</f>
@@ -1151,7 +1184,7 @@
         <v>45291</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -1160,14 +1193,14 @@
         <v>5</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H15" s="14" t="str">
         <f>C15&amp;D15&amp;E15&amp;F15&amp;G15</f>
-        <v>+1bd|WEuNY/M</v>
+        <v>+1bd|WEuNY/MOD</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="0"/>
@@ -1191,7 +1224,7 @@
       </c>
       <c r="O15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/31/23+1bd|WEuNY/M</v>
+        <v>12/31/23+1bd|WEuNY/MOD</v>
       </c>
       <c r="P15" s="8">
         <f>M15</f>
@@ -1203,7 +1236,7 @@
         <v>45362</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -1212,14 +1245,14 @@
         <v>5</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H16" s="14" t="str">
         <f>C16&amp;D16&amp;E16&amp;F16&amp;G16</f>
-        <v>+1bd|WEuNY/M</v>
+        <v>+1bd|WEuNY/MOD</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="0"/>
@@ -1233,19 +1266,19 @@
       <c r="L16" s="1"/>
       <c r="O16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>03/11/24+1bd|WEuNY/M</v>
+        <v>03/11/24+1bd|WEuNY/MOD</v>
       </c>
       <c r="P16" s="8">
         <f>J16</f>
         <v>45363</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>45412</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -1254,14 +1287,14 @@
         <v>5</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H17" s="14" t="str">
         <f>C17&amp;D17&amp;E17&amp;F17&amp;G17</f>
-        <v>+1bd|WEuNY/M</v>
+        <v>+1bd|WEuNY/MOD</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="0"/>
@@ -1275,19 +1308,19 @@
       <c r="L17" s="1"/>
       <c r="O17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>04/30/24+1bd|WEuNY/M</v>
+        <v>04/30/24+1bd|WEuNY/MOD</v>
       </c>
       <c r="P17" s="8">
         <f>J17</f>
         <v>45413</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>44921</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="10">
         <v>0</v>
@@ -1296,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="14" t="str">
         <f>C18&amp;D18&amp;E18&amp;F18&amp;G18</f>
@@ -1318,12 +1351,12 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>43983</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -1332,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="14" t="str">
         <f>C19&amp;D19&amp;E19&amp;F19&amp;G19</f>
@@ -1354,12 +1387,12 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>45363</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="10">
         <v>0</v>
@@ -1368,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="14" t="str">
         <f>C20&amp;D20&amp;E20&amp;F20&amp;G20</f>
@@ -1390,12 +1423,12 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>45413</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -1404,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="14" t="str">
         <f>C21&amp;D21&amp;E21&amp;F21&amp;G21</f>
@@ -1426,12 +1459,12 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>44921</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -1440,14 +1473,14 @@
         <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H22" s="14" t="str">
         <f>C22&amp;D22&amp;E22&amp;F22&amp;G22</f>
-        <v>-0bd|WEuNY/M</v>
+        <v>-0bd|WEuNY/MOD</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="0"/>
@@ -1458,19 +1491,22 @@
       <c r="L22" s="1"/>
       <c r="O22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/26/22-0bd|WEuNY/M</v>
+        <v>12/26/22-0bd|WEuNY/MOD</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ref="P22:P25" si="3">I22</f>
         <v>44921</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S22" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>43983</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -1479,14 +1515,14 @@
         <v>5</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H23" s="14" t="str">
         <f>C23&amp;D23&amp;E23&amp;F23&amp;G23</f>
-        <v>-0bd|WEuNY/M</v>
+        <v>-0bd|WEuNY/MOD</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="0"/>
@@ -1497,19 +1533,19 @@
       <c r="L23" s="1"/>
       <c r="O23" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>06/01/20-0bd|WEuNY/M</v>
+        <v>06/01/20-0bd|WEuNY/MOD</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="3"/>
         <v>43983</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>45363</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="10">
         <v>0</v>
@@ -1518,14 +1554,14 @@
         <v>5</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H24" s="14" t="str">
         <f>C24&amp;D24&amp;E24&amp;F24&amp;G24</f>
-        <v>-0bd|WEuNY/M</v>
+        <v>-0bd|WEuNY/MOD</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="0"/>
@@ -1536,19 +1572,19 @@
       <c r="L24" s="1"/>
       <c r="O24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>03/12/24-0bd|WEuNY/M</v>
+        <v>03/12/24-0bd|WEuNY/MOD</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="3"/>
         <v>45363</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>45413</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="10">
         <v>0</v>
@@ -1557,14 +1593,14 @@
         <v>5</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H25" s="14" t="str">
         <f>C25&amp;D25&amp;E25&amp;F25&amp;G25</f>
-        <v>-0bd|WEuNY/M</v>
+        <v>-0bd|WEuNY/MOD</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="0"/>
@@ -1575,19 +1611,19 @@
       <c r="L25" s="1"/>
       <c r="O25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>05/01/24-0bd|WEuNY/M</v>
+        <v>05/01/24-0bd|WEuNY/MOD</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="3"/>
         <v>45413</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>44921</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -1596,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="14" t="str">
         <f>C26&amp;D26&amp;E26&amp;F26&amp;G26</f>
@@ -1627,12 +1663,12 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>43983</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -1641,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="14" t="str">
         <f>C27&amp;D27&amp;E27&amp;F27&amp;G27</f>
@@ -1672,12 +1708,12 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>45363</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -1686,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="14" t="str">
         <f>C28&amp;D28&amp;E28&amp;F28&amp;G28</f>
@@ -1711,12 +1747,12 @@
         <v>45362</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>45413</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -1725,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="14" t="str">
         <f>C29&amp;D29&amp;E29&amp;F29&amp;G29</f>
@@ -1750,12 +1786,12 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>44921</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -1764,14 +1800,14 @@
         <v>5</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H30" s="14" t="str">
         <f>C30&amp;D30&amp;E30&amp;F30&amp;G30</f>
-        <v>-1bd|WEuNY/M</v>
+        <v>-1bd|WEuNY/MOD</v>
       </c>
       <c r="I30" s="14">
         <f t="shared" si="0"/>
@@ -1785,19 +1821,19 @@
       <c r="L30" s="1"/>
       <c r="O30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>12/26/22-1bd|WEuNY/M</v>
+        <v>12/26/22-1bd|WEuNY/MOD</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="5"/>
         <v>44920</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>43983</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -1806,21 +1842,21 @@
         <v>5</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H31" s="14" t="str">
         <f>C31&amp;D31&amp;E31&amp;F31&amp;G31</f>
-        <v>-1bd|WEuNY/M</v>
+        <v>-1bd|WEuNY/MOD</v>
       </c>
       <c r="I31" s="14">
         <f t="shared" si="0"/>
         <v>43983</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="4"/>
+        <f>I31-1</f>
         <v>43982</v>
       </c>
       <c r="K31" s="17">
@@ -1830,19 +1866,19 @@
       <c r="L31" s="1"/>
       <c r="O31" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>06/01/20-1bd|WEuNY/M</v>
+        <v>06/01/20-1bd|WEuNY/MOD</v>
       </c>
       <c r="P31" s="8">
         <f>K31</f>
         <v>43983</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>45363</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -1851,14 +1887,14 @@
         <v>5</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H32" s="14" t="str">
         <f>C32&amp;D32&amp;E32&amp;F32&amp;G32</f>
-        <v>-1bd|WEuNY/M</v>
+        <v>-1bd|WEuNY/MOD</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="0"/>
@@ -1872,19 +1908,19 @@
       <c r="L32" s="1"/>
       <c r="O32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>03/12/24-1bd|WEuNY/M</v>
+        <v>03/12/24-1bd|WEuNY/MOD</v>
       </c>
       <c r="P32" s="8">
         <f>J32</f>
         <v>45362</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>45413</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -1893,14 +1929,14 @@
         <v>5</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H33" s="14" t="str">
         <f>C33&amp;D33&amp;E33&amp;F33&amp;G33</f>
-        <v>-1bd|WEuNY/M</v>
+        <v>-1bd|WEuNY/MOD</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="0"/>
@@ -1917,26 +1953,227 @@
       <c r="L33" s="1"/>
       <c r="O33" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>05/01/24-1bd|WEuNY/M</v>
+        <v>05/01/24-1bd|WEuNY/MOD</v>
       </c>
       <c r="P33" s="8">
         <f>K33</f>
         <v>45413</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I37" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10">
+        <v>15</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="8">
+        <f>B36+D36</f>
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="8">
+        <f>B37-D37</f>
+        <v>45347</v>
+      </c>
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" s="8">
+        <f>B38+D38-7</f>
+        <v>45364</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="8">
+        <f>B39+D39*7</f>
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10">
+        <v>7</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="8">
+        <f>EDATE(B40,D40)</f>
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="10">
+        <v>7</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="8">
+        <f>EDATE(B41,-D41)</f>
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="8">
+        <f>EDATE(B42,3*D42)</f>
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="8">
+        <f>EDATE(B43,-3*D43)</f>
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10">
+        <v>5</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="8">
+        <f>EDATE(B44,12*D44)</f>
+        <v>47188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="8">
+        <f>EDATE(B45,-12*D45)</f>
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D50" s="14"/>
       <c r="F50" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="21" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G33">

--- a/dateroll/tests/test_cases.xlsx
+++ b/dateroll/tests/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amalizzio\github\dateroll\dateroll\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\batu\gh\dateroll\dateroll\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01149F60-453B-4B63-ADA9-256E667BC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94C1C12-1ABD-43C8-9A63-9F1BAD084FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41C17D60-4722-4875-B647-88904F0DF08C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41C17D60-4722-4875-B647-88904F0DF08C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="98">
   <si>
     <t>sign</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>(didn't do steps)</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>MDY</t>
+  </si>
+  <si>
+    <t>12/24/21 was hol</t>
+  </si>
+  <si>
+    <t>12/31/21 was hol</t>
   </si>
 </sst>
 </file>
@@ -370,12 +382,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -391,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,49 +417,55 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -462,9 +486,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -502,7 +526,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -608,7 +632,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -750,7 +774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -760,8 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9266ADB-7E64-45E0-975D-93E86FEC3C09}">
   <dimension ref="B1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:K43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,15 +798,17 @@
     <col min="5" max="7" width="10.28515625" style="12" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="17.7109375" style="20" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="20" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" style="9" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="17" max="17" width="11.7109375" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -825,8 +852,11 @@
       <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="10">
         <v>45284</v>
       </c>
@@ -867,8 +897,11 @@
         <f>K2</f>
         <v>45286</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>45291</v>
       </c>
@@ -909,8 +942,11 @@
         <f>K3</f>
         <v>45293</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>45362</v>
       </c>
@@ -945,8 +981,11 @@
         <f>I4</f>
         <v>45362</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>45412</v>
       </c>
@@ -981,8 +1020,11 @@
         <f>I5</f>
         <v>45412</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>45284</v>
       </c>
@@ -1026,8 +1068,11 @@
         <f>K6</f>
         <v>45286</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>45291</v>
       </c>
@@ -1079,8 +1124,11 @@
         <f>M7</f>
         <v>45289</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>45362</v>
       </c>
@@ -1118,8 +1166,11 @@
         <f>I8</f>
         <v>45362</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45412</v>
       </c>
@@ -1157,8 +1208,11 @@
         <f>I9</f>
         <v>45412</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45284</v>
       </c>
@@ -1199,8 +1253,11 @@
         <f>K10</f>
         <v>45286</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45291</v>
       </c>
@@ -1241,8 +1298,11 @@
         <f>K11</f>
         <v>45293</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>45362</v>
       </c>
@@ -1280,8 +1340,11 @@
         <f>J12</f>
         <v>45363</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>45412</v>
       </c>
@@ -1319,8 +1382,11 @@
         <f>J13</f>
         <v>45413</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>45284</v>
       </c>
@@ -1364,8 +1430,11 @@
         <f>K14</f>
         <v>45286</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>45291</v>
       </c>
@@ -1416,8 +1485,11 @@
         <f>M15</f>
         <v>45289</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>45362</v>
       </c>
@@ -1458,6 +1530,9 @@
         <f>J16</f>
         <v>45363</v>
       </c>
+      <c r="Q16" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
@@ -1503,6 +1578,9 @@
         <f>K17</f>
         <v>45412</v>
       </c>
+      <c r="Q17" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
@@ -1528,16 +1606,28 @@
         <f t="shared" si="1"/>
         <v>44921</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="J18" s="10">
+        <f>I18-1</f>
+        <v>44920</v>
+      </c>
+      <c r="K18" s="10">
+        <f>J18-1</f>
+        <v>44919</v>
+      </c>
+      <c r="L18" s="10">
+        <f>K18-1</f>
+        <v>44918</v>
+      </c>
       <c r="O18" s="14" t="str">
         <f t="shared" si="2"/>
         <v>12/26/22-0bd|WEuNY</v>
       </c>
       <c r="P18" s="14">
-        <f>I18</f>
-        <v>44921</v>
+        <f>L18</f>
+        <v>44918</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
@@ -1575,6 +1665,9 @@
         <f t="shared" ref="P19:P20" si="4">I19</f>
         <v>43983</v>
       </c>
+      <c r="Q19" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
@@ -1611,6 +1704,9 @@
         <f t="shared" si="4"/>
         <v>45363</v>
       </c>
+      <c r="Q20" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
@@ -1647,6 +1743,9 @@
         <f>I21</f>
         <v>45413</v>
       </c>
+      <c r="Q21" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
@@ -1675,16 +1774,28 @@
         <f t="shared" si="1"/>
         <v>44921</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="J22" s="10">
+        <f>I22-1</f>
+        <v>44920</v>
+      </c>
+      <c r="K22" s="10">
+        <f>J22-1</f>
+        <v>44919</v>
+      </c>
+      <c r="L22" s="10">
+        <f>K22-1</f>
+        <v>44918</v>
+      </c>
       <c r="O22" s="14" t="str">
         <f t="shared" si="2"/>
         <v>12/26/22-0bd|WEuNY/MOD</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" ref="P22:P25" si="5">I22</f>
-        <v>44921</v>
+        <f>L22</f>
+        <v>44918</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="S22" s="18" t="s">
         <v>17</v>
@@ -1725,8 +1836,11 @@
         <v>06/01/20-0bd|WEuNY/MOD</v>
       </c>
       <c r="P23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P23:P25" si="5">I23</f>
         <v>43983</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
@@ -1767,6 +1881,9 @@
         <f t="shared" si="5"/>
         <v>45363</v>
       </c>
+      <c r="Q24" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -1806,6 +1923,9 @@
         <f t="shared" si="5"/>
         <v>45413</v>
       </c>
+      <c r="Q25" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
@@ -1851,6 +1971,9 @@
         <f>L26</f>
         <v>44918</v>
       </c>
+      <c r="Q26" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
@@ -1895,6 +2018,9 @@
       <c r="P27" s="14">
         <f>L27</f>
         <v>43980</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
@@ -1935,6 +2061,9 @@
         <f>J28</f>
         <v>45362</v>
       </c>
+      <c r="Q28" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
@@ -1974,6 +2103,9 @@
         <f t="shared" ref="P29" si="8">J29</f>
         <v>45412</v>
       </c>
+      <c r="Q29" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
@@ -2021,6 +2153,9 @@
       <c r="P30" s="14">
         <f>L30</f>
         <v>44918</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
@@ -2066,6 +2201,9 @@
       <c r="P31" s="14">
         <f>K31</f>
         <v>43983</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -2109,6 +2247,9 @@
         <f>J32</f>
         <v>45362</v>
       </c>
+      <c r="Q32" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
@@ -2154,6 +2295,9 @@
         <f>K33</f>
         <v>45413</v>
       </c>
+      <c r="Q33" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
@@ -2183,6 +2327,9 @@
         <f>B34+D34</f>
         <v>45377</v>
       </c>
+      <c r="Q34" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
@@ -2212,6 +2359,9 @@
         <f>B35-D35</f>
         <v>45347</v>
       </c>
+      <c r="Q35" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -2238,8 +2388,11 @@
         <v>03/11/24+9w</v>
       </c>
       <c r="P36" s="14">
-        <f>B36+D36-7</f>
-        <v>45364</v>
+        <f>B36+D36*7</f>
+        <v>45425</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
@@ -2267,10 +2420,12 @@
         <v>03/11/24-9w</v>
       </c>
       <c r="P37" s="14">
-        <f>B37+D37*7</f>
-        <v>45425</v>
-      </c>
-      <c r="Q37" s="14"/>
+        <f>B37-D37*7</f>
+        <v>45299</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
@@ -2300,7 +2455,9 @@
         <f>EDATE(B38,D38)</f>
         <v>45576</v>
       </c>
-      <c r="Q38" s="14"/>
+      <c r="Q38" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="R38" s="14"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -2331,6 +2488,9 @@
         <f>EDATE(B39,-D39)</f>
         <v>45149</v>
       </c>
+      <c r="Q39" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
@@ -2360,6 +2520,9 @@
         <f>EDATE(B40,3*D40)</f>
         <v>45637</v>
       </c>
+      <c r="Q40" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
@@ -2389,6 +2552,9 @@
         <f>EDATE(B41,-3*D41)</f>
         <v>45088</v>
       </c>
+      <c r="Q41" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
@@ -2418,6 +2584,9 @@
         <f>EDATE(B42,12*D42)</f>
         <v>47188</v>
       </c>
+      <c r="Q42" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
@@ -2447,6 +2616,9 @@
         <f>EDATE(B43,-12*D43)</f>
         <v>43535</v>
       </c>
+      <c r="Q43" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
@@ -2476,14 +2648,16 @@
       <c r="K44" s="10">
         <v>44564</v>
       </c>
-      <c r="L44" s="3">
-        <v>44565</v>
-      </c>
+      <c r="L44" s="3"/>
       <c r="O44" s="14" t="s">
         <v>26</v>
       </c>
       <c r="P44" s="14">
-        <v>44565</v>
+        <f>K44</f>
+        <v>44564</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
@@ -2517,14 +2691,16 @@
       <c r="K45" s="10">
         <v>44564</v>
       </c>
-      <c r="L45" s="3">
-        <v>44565</v>
-      </c>
+      <c r="L45" s="3"/>
       <c r="O45" s="14" t="s">
         <v>28</v>
       </c>
       <c r="P45" s="14">
-        <v>44565</v>
+        <f>K45</f>
+        <v>44564</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
@@ -2555,14 +2731,16 @@
       <c r="K46" s="10">
         <v>44564</v>
       </c>
-      <c r="L46" s="3">
-        <v>44565</v>
-      </c>
+      <c r="L46" s="3"/>
       <c r="O46" s="14" t="s">
         <v>30</v>
       </c>
       <c r="P46" s="14">
-        <v>44565</v>
+        <f>K46</f>
+        <v>44564</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
@@ -2603,7 +2781,11 @@
         <v>32</v>
       </c>
       <c r="P47" s="14">
-        <v>44565</v>
+        <f>K47</f>
+        <v>44564</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
@@ -2641,8 +2823,11 @@
       <c r="P48" s="14">
         <v>45293</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q48" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>44562</v>
       </c>
@@ -2665,7 +2850,7 @@
         <v>44562</v>
       </c>
       <c r="J49" s="3">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>93</v>
@@ -2675,10 +2860,13 @@
         <v>35</v>
       </c>
       <c r="P49" s="14">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+        <v>44568</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>45291</v>
       </c>
@@ -2713,8 +2901,11 @@
       <c r="P50" s="14">
         <v>45299</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>45362</v>
       </c>
@@ -2749,8 +2940,11 @@
       <c r="P51" s="14">
         <v>45369</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>45412</v>
       </c>
@@ -2785,8 +2979,11 @@
       <c r="P52" s="14">
         <v>45419</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q52" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>45284</v>
       </c>
@@ -2811,8 +3008,8 @@
       <c r="I53" s="13">
         <v>45284</v>
       </c>
-      <c r="J53" s="3">
-        <v>45293</v>
+      <c r="J53" s="21">
+        <v>45289</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>93</v>
@@ -2822,10 +3019,14 @@
         <v>40</v>
       </c>
       <c r="P53" s="14">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J53</f>
+        <v>45289</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>44562</v>
       </c>
@@ -2850,8 +3051,8 @@
       <c r="I54" s="13">
         <v>44562</v>
       </c>
-      <c r="J54" s="3">
-        <v>44571</v>
+      <c r="J54" s="21">
+        <v>44568</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>93</v>
@@ -2860,11 +3061,14 @@
       <c r="O54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P54" s="14">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="10">
+        <v>44568</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="10">
         <v>45291</v>
       </c>
@@ -2890,7 +3094,7 @@
         <v>45291</v>
       </c>
       <c r="J55" s="3">
-        <v>45299</v>
+        <v>45289</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>93</v>
@@ -2900,10 +3104,14 @@
         <v>42</v>
       </c>
       <c r="P55" s="14">
-        <v>45299</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J55</f>
+        <v>45289</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="10">
         <v>45362</v>
       </c>
@@ -2941,8 +3149,11 @@
       <c r="P56" s="14">
         <v>45369</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q56" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="10">
         <v>45412</v>
       </c>
@@ -2967,8 +3178,8 @@
       <c r="I57" s="13">
         <v>45412</v>
       </c>
-      <c r="J57" s="3">
-        <v>45419</v>
+      <c r="J57" s="21">
+        <v>45412</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>93</v>
@@ -2978,10 +3189,14 @@
         <v>44</v>
       </c>
       <c r="P57" s="14">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J57</f>
+        <v>45412</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
         <v>45284</v>
       </c>
@@ -3003,7 +3218,7 @@
       <c r="I58" s="13">
         <v>45284</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="21">
         <v>45293</v>
       </c>
       <c r="K58" s="10" t="s">
@@ -3014,10 +3229,14 @@
         <v>46</v>
       </c>
       <c r="P58" s="14">
+        <f>J58</f>
         <v>45293</v>
       </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>44562</v>
       </c>
@@ -3052,8 +3271,11 @@
       <c r="P59" s="14">
         <v>44571</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
         <v>45291</v>
       </c>
@@ -3088,8 +3310,11 @@
       <c r="P60" s="14">
         <v>45299</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q60" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
         <v>45362</v>
       </c>
@@ -3124,8 +3349,11 @@
       <c r="P61" s="14">
         <v>45369</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
         <v>45412</v>
       </c>
@@ -3160,8 +3388,11 @@
       <c r="P62" s="14">
         <v>45419</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q62" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="10">
         <v>45284</v>
       </c>
@@ -3187,7 +3418,7 @@
         <v>45284</v>
       </c>
       <c r="J63" s="3">
-        <v>45293</v>
+        <v>45289</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>93</v>
@@ -3197,10 +3428,14 @@
         <v>52</v>
       </c>
       <c r="P63" s="14">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J63</f>
+        <v>45289</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="10">
         <v>44562</v>
       </c>
@@ -3238,8 +3473,11 @@
       <c r="P64" s="14">
         <v>44571</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>45291</v>
       </c>
@@ -3277,8 +3515,11 @@
       <c r="P65" s="14">
         <v>45299</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="10">
         <v>45362</v>
       </c>
@@ -3316,8 +3557,11 @@
       <c r="P66" s="14">
         <v>45369</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>45412</v>
       </c>
@@ -3355,8 +3599,11 @@
       <c r="P67" s="14">
         <v>45419</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10">
         <v>44562</v>
       </c>
@@ -3378,21 +3625,27 @@
       <c r="I68" s="13">
         <v>44562</v>
       </c>
-      <c r="J68" s="3">
-        <v>44561</v>
+      <c r="J68" s="21">
+        <v>44560</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L68" s="10"/>
+      <c r="L68" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="O68" s="14" t="s">
         <v>58</v>
       </c>
       <c r="P68" s="14">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J68</f>
+        <v>44560</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>44562</v>
       </c>
@@ -3418,7 +3671,7 @@
         <v>44562</v>
       </c>
       <c r="J69" s="3">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>93</v>
@@ -3428,10 +3681,14 @@
         <v>60</v>
       </c>
       <c r="P69" s="14">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J69</f>
+        <v>44564</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="10">
         <v>44562</v>
       </c>
@@ -3454,7 +3711,7 @@
         <v>44562</v>
       </c>
       <c r="J70" s="3">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>93</v>
@@ -3464,10 +3721,14 @@
         <v>62</v>
       </c>
       <c r="P70" s="14">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P70:P71" si="9">J70</f>
+        <v>44560</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="10">
         <v>44562</v>
       </c>
@@ -3493,7 +3754,7 @@
         <v>44562</v>
       </c>
       <c r="J71" s="3">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>93</v>
@@ -3503,10 +3764,14 @@
         <v>64</v>
       </c>
       <c r="P71" s="14">
-        <v>44561</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>44564</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="10">
         <v>45284</v>
       </c>
@@ -3541,8 +3806,11 @@
       <c r="P72" s="14">
         <v>45278</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q72" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="10">
         <v>44562</v>
       </c>
@@ -3564,21 +3832,27 @@
       <c r="I73" s="13">
         <v>44562</v>
       </c>
-      <c r="J73" s="3">
-        <v>44557</v>
+      <c r="J73" s="21">
+        <v>44553</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L73" s="10"/>
+      <c r="L73" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="O73" s="14" t="s">
         <v>67</v>
       </c>
       <c r="P73" s="14">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J73</f>
+        <v>44553</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="10">
         <v>45291</v>
       </c>
@@ -3613,8 +3887,11 @@
       <c r="P74" s="14">
         <v>45282</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q74" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>45362</v>
       </c>
@@ -3649,8 +3926,11 @@
       <c r="P75" s="14">
         <v>45355</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="10">
         <v>45412</v>
       </c>
@@ -3685,8 +3965,11 @@
       <c r="P76" s="14">
         <v>45405</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q76" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="10">
         <v>45284</v>
       </c>
@@ -3724,8 +4007,11 @@
       <c r="P77" s="14">
         <v>45278</v>
       </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q77" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="10">
         <v>44562</v>
       </c>
@@ -3750,8 +4036,8 @@
       <c r="I78" s="13">
         <v>44562</v>
       </c>
-      <c r="J78" s="3">
-        <v>44557</v>
+      <c r="J78" s="21">
+        <v>44564</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>93</v>
@@ -3761,10 +4047,14 @@
         <v>73</v>
       </c>
       <c r="P78" s="14">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+        <f>J78</f>
+        <v>44564</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="10">
         <v>45291</v>
       </c>
@@ -3802,8 +4092,11 @@
       <c r="P79" s="14">
         <v>45282</v>
       </c>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
         <v>45362</v>
       </c>
@@ -3841,8 +4134,11 @@
       <c r="P80" s="14">
         <v>45355</v>
       </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q80" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="10">
         <v>45412</v>
       </c>
@@ -3880,8 +4176,11 @@
       <c r="P81" s="14">
         <v>45405</v>
       </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="10">
         <v>45284</v>
       </c>
@@ -3916,8 +4215,11 @@
       <c r="P82" s="14">
         <v>45275</v>
       </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q82" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>44562</v>
       </c>
@@ -3952,8 +4254,11 @@
       <c r="P83" s="14">
         <v>44553</v>
       </c>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q83" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="10">
         <v>45291</v>
       </c>
@@ -3988,8 +4293,11 @@
       <c r="P84" s="14">
         <v>45282</v>
       </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q84" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="10">
         <v>45362</v>
       </c>
@@ -4024,8 +4332,11 @@
       <c r="P85" s="14">
         <v>45355</v>
       </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="10">
         <v>45412</v>
       </c>
@@ -4060,8 +4371,11 @@
       <c r="P86" s="14">
         <v>45405</v>
       </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q86" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="10">
         <v>45284</v>
       </c>
@@ -4099,8 +4413,11 @@
       <c r="P87" s="14">
         <v>45275</v>
       </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q87" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="10">
         <v>44562</v>
       </c>
@@ -4138,8 +4455,11 @@
       <c r="P88" s="14">
         <v>44553</v>
       </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q88" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="10">
         <v>45291</v>
       </c>
@@ -4177,8 +4497,11 @@
       <c r="P89" s="14">
         <v>45282</v>
       </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q89" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
         <v>45362</v>
       </c>
@@ -4216,8 +4539,11 @@
       <c r="P90" s="14">
         <v>45355</v>
       </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q90" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>45412</v>
       </c>
@@ -4255,8 +4581,11 @@
       <c r="P91" s="14">
         <v>45405</v>
       </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q91" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="10">
         <v>45841</v>
       </c>
@@ -4290,8 +4619,11 @@
       <c r="P92" s="14">
         <v>45845</v>
       </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q92" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="10">
         <v>45338</v>
       </c>
@@ -4325,8 +4657,11 @@
       <c r="P93" s="14">
         <v>45342</v>
       </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="10">
         <v>45845</v>
       </c>
@@ -4360,8 +4695,11 @@
       <c r="P94" s="14">
         <v>45841</v>
       </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q94" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="10">
         <v>45342</v>
       </c>
@@ -4394,6 +4732,9 @@
       </c>
       <c r="P95" s="14">
         <v>45338</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/dateroll/tests/test_cases.xlsx
+++ b/dateroll/tests/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\batu\gh\dateroll\dateroll\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94C1C12-1ABD-43C8-9A63-9F1BAD084FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516F6D1-12EF-487D-AF38-2C3FDC7BC234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41C17D60-4722-4875-B647-88904F0DF08C}"/>
   </bookViews>
@@ -391,7 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +461,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -785,8 +785,8 @@
   <dimension ref="B1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,7 +3008,7 @@
       <c r="I53" s="13">
         <v>45284</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="22">
         <v>45289</v>
       </c>
       <c r="K53" s="10" t="s">
@@ -3051,7 +3051,7 @@
       <c r="I54" s="13">
         <v>44562</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="22">
         <v>44568</v>
       </c>
       <c r="K54" s="10" t="s">
@@ -3178,7 +3178,7 @@
       <c r="I57" s="13">
         <v>45412</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="22">
         <v>45412</v>
       </c>
       <c r="K57" s="10" t="s">
@@ -3218,7 +3218,7 @@
       <c r="I58" s="13">
         <v>45284</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="22">
         <v>45293</v>
       </c>
       <c r="K58" s="10" t="s">
@@ -3625,13 +3625,13 @@
       <c r="I68" s="13">
         <v>44562</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J68" s="22">
         <v>44560</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="L68" s="21" t="s">
         <v>97</v>
       </c>
       <c r="O68" s="14" t="s">
@@ -3832,7 +3832,7 @@
       <c r="I73" s="13">
         <v>44562</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J73" s="22">
         <v>44553</v>
       </c>
       <c r="K73" s="10" t="s">
@@ -4036,7 +4036,7 @@
       <c r="I78" s="13">
         <v>44562</v>
       </c>
-      <c r="J78" s="21">
+      <c r="J78" s="22">
         <v>44564</v>
       </c>
       <c r="K78" s="10" t="s">
